--- a/Project706_J. A. Long(2006).xlsx
+++ b/Project706_J. A. Long(2006).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE9E681-213B-5C4B-BB40-2A9CC0F584A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253FBD24-E801-4C86-BB4F-9B1A3F3FF0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{78ADB668-0A1D-7E4D-9DAF-AEFEFC7B5128}"/>
+    <workbookView xWindow="16455" yWindow="3120" windowWidth="15945" windowHeight="18375" xr2:uid="{78ADB668-0A1D-7E4D-9DAF-AEFEFC7B5128}"/>
   </bookViews>
   <sheets>
     <sheet name="Project 706" sheetId="2" r:id="rId1"/>
@@ -532,55 +532,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33865</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>8556</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3157A585-BFDD-2B76-C4A7-36A0B5F9BD4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10524067" y="321732"/>
-          <a:ext cx="10727266" cy="6680291"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,17 +877,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2295819D-64F8-2241-8706-9DDF2FCC4E78}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -947,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -958,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -969,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -980,7 +929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -991,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1013,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1024,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1004,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1077,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1088,7 +1037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1046,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1054,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1116,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1138,7 +1087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1171,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1182,7 +1131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1193,7 +1142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1215,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1237,7 +1186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1248,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1257,7 +1206,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1268,7 +1217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1279,7 +1228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1290,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1301,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1312,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1321,7 +1270,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1332,7 +1281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1343,7 +1292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1354,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1365,7 +1314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1376,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1387,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1398,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1409,7 +1358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1420,7 +1369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1431,7 +1380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1442,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1453,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1464,7 +1413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1475,7 +1424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1486,7 +1435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1497,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1508,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1519,7 +1468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1530,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1541,7 +1490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1552,7 +1501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1563,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1574,7 +1523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1585,7 +1534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1596,7 +1545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1607,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -1618,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -1629,7 +1578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -1640,7 +1589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -1651,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1662,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -1673,7 +1622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -1684,7 +1633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -1695,7 +1644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -1706,7 +1655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -1717,7 +1666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -1728,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -1739,7 +1688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -1750,7 +1699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -1761,7 +1710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -1772,7 +1721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -1783,7 +1732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -1792,7 +1741,7 @@
       </c>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -1803,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -1814,7 +1763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -1825,7 +1774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -1836,7 +1785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -1845,7 +1794,7 @@
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -1856,7 +1805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -1867,7 +1816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -1878,7 +1827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -1889,7 +1838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -1900,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -1911,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -1922,7 +1871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -1933,7 +1882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -1944,7 +1893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -1955,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -1966,7 +1915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -1977,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -1988,7 +1937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -1999,7 +1948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2010,7 +1959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2021,7 +1970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2032,7 +1981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2043,7 +1992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2054,7 +2003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2065,7 +2014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2076,7 +2025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2087,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -2098,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -2109,7 +2058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -2120,7 +2069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -2131,7 +2080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -2142,7 +2091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -2153,7 +2102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -2164,7 +2113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -2175,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -2189,7 +2138,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>